--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_14_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_14_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-281615.562951791</v>
+        <v>-284255.3874073264</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9738194.348127902</v>
+        <v>9729595.115995374</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12959902.51583219</v>
+        <v>12961396.47311663</v>
       </c>
     </row>
     <row r="11">
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1209,13 +1209,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1269,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1330,16 +1330,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>3.334980354192922</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>373.9077245315483</v>
+        <v>374.0126883273359</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>356.5517384348629</v>
       </c>
       <c r="D11" t="n">
-        <v>345.8569244887507</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>373.1042529403295</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>398.0499286097792</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>402.0956085215212</v>
+        <v>402.2005723173088</v>
       </c>
       <c r="H11" t="n">
-        <v>54.56645975851516</v>
+        <v>285.8866110511758</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>32.8557764367813</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>100.4666084520312</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>195.1968168034755</v>
       </c>
       <c r="U11" t="n">
-        <v>242.1690548269697</v>
+        <v>242.2740186227573</v>
       </c>
       <c r="V11" t="n">
-        <v>318.9261413382026</v>
+        <v>319.0311051339903</v>
       </c>
       <c r="W11" t="n">
-        <v>340.4148515854807</v>
+        <v>340.5198153812684</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>199.9902318443212</v>
       </c>
       <c r="Y11" t="n">
-        <v>377.4118215241213</v>
+        <v>377.5167853199089</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>171.1108268457926</v>
       </c>
       <c r="C13" t="n">
-        <v>158.4207039666955</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>41.79691037633094</v>
       </c>
       <c r="E13" t="n">
-        <v>137.6078455146369</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>136.5949308909989</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>157.1996911270959</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>70.39707089127685</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.52630327790578</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>80.21099933390268</v>
       </c>
       <c r="S13" t="n">
-        <v>180.9429081995096</v>
+        <v>181.0478719952972</v>
       </c>
       <c r="T13" t="n">
-        <v>210.7228321442369</v>
+        <v>210.8277959400245</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3857210736805</v>
+        <v>277.4906848694682</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>243.4164899876833</v>
       </c>
       <c r="W13" t="n">
-        <v>277.6968812046587</v>
+        <v>277.8018450004463</v>
       </c>
       <c r="X13" t="n">
-        <v>216.8835382571048</v>
+        <v>216.9885020528925</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>209.8635000159501</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>373.9077245315484</v>
+        <v>372.1066484477335</v>
       </c>
       <c r="C14" t="n">
-        <v>356.4467746390753</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>345.8569244887507</v>
+        <v>270.2335420006079</v>
       </c>
       <c r="E14" t="n">
-        <v>373.1042529403296</v>
+        <v>371.3031768565147</v>
       </c>
       <c r="F14" t="n">
-        <v>398.0499286097792</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>402.0956085215212</v>
+        <v>400.2945324377064</v>
       </c>
       <c r="H14" t="n">
-        <v>201.8176283577015</v>
+        <v>283.9805711715734</v>
       </c>
       <c r="I14" t="n">
-        <v>32.75081264099374</v>
+        <v>30.94973655717894</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>100.3616446562436</v>
+        <v>98.56056857242881</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>193.2907769238731</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>240.3679787431549</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>317.1250652543878</v>
       </c>
       <c r="W14" t="n">
-        <v>340.4148515854808</v>
+        <v>338.6137755016659</v>
       </c>
       <c r="X14" t="n">
-        <v>360.9049835465368</v>
+        <v>359.103907462722</v>
       </c>
       <c r="Y14" t="n">
-        <v>377.4118215241214</v>
+        <v>375.6107454403065</v>
       </c>
     </row>
     <row r="15">
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>169.2047869661903</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>81.83650171317196</v>
+        <v>73.89614678073875</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>136.594930890999</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>157.199691127096</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>135.9288977823885</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>78.3049594543003</v>
       </c>
       <c r="S16" t="n">
-        <v>180.9429081995096</v>
+        <v>179.1418321156949</v>
       </c>
       <c r="T16" t="n">
-        <v>210.722832144237</v>
+        <v>208.9217560604222</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3857210736807</v>
+        <v>275.5846449898658</v>
       </c>
       <c r="V16" t="n">
-        <v>243.3115261918958</v>
+        <v>241.510450108081</v>
       </c>
       <c r="W16" t="n">
-        <v>277.6968812046588</v>
+        <v>275.8958051208439</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>215.0824621732901</v>
       </c>
       <c r="Y16" t="n">
-        <v>209.7585362201626</v>
+        <v>207.9574601363477</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>326.9325879129557</v>
+        <v>327.0375517087434</v>
       </c>
       <c r="C17" t="n">
-        <v>309.4716380204827</v>
+        <v>309.5766018162703</v>
       </c>
       <c r="D17" t="n">
-        <v>298.8817878701581</v>
+        <v>298.9867516659457</v>
       </c>
       <c r="E17" t="n">
-        <v>326.1291163217369</v>
+        <v>326.2340801175246</v>
       </c>
       <c r="F17" t="n">
-        <v>351.0747919911865</v>
+        <v>188.3799892044634</v>
       </c>
       <c r="G17" t="n">
-        <v>355.1204719029286</v>
+        <v>355.2254356987162</v>
       </c>
       <c r="H17" t="n">
-        <v>238.8065106367956</v>
+        <v>238.9114744325832</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>53.38650803765098</v>
+        <v>53.49147183343861</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>148.2216801848829</v>
       </c>
       <c r="U17" t="n">
-        <v>193.5622918282159</v>
+        <v>195.2988820041647</v>
       </c>
       <c r="V17" t="n">
-        <v>271.95100471961</v>
+        <v>272.0559685153977</v>
       </c>
       <c r="W17" t="n">
-        <v>293.4397149668881</v>
+        <v>293.5446787626758</v>
       </c>
       <c r="X17" t="n">
-        <v>313.9298469279441</v>
+        <v>314.0348107237318</v>
       </c>
       <c r="Y17" t="n">
-        <v>330.4366849055287</v>
+        <v>330.5416487013164</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824771</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>124.0307264314124</v>
+        <v>124.1356902272001</v>
       </c>
       <c r="C19" t="n">
-        <v>111.445567348103</v>
+        <v>111.5505311438906</v>
       </c>
       <c r="D19" t="n">
-        <v>92.81421926768748</v>
+        <v>92.91918306347512</v>
       </c>
       <c r="E19" t="n">
-        <v>90.63270889604429</v>
+        <v>90.73767269183193</v>
       </c>
       <c r="F19" t="n">
-        <v>89.61979427240637</v>
+        <v>89.72475806819401</v>
       </c>
       <c r="G19" t="n">
-        <v>110.2245545085033</v>
+        <v>110.329518304291</v>
       </c>
       <c r="H19" t="n">
-        <v>88.9537611637959</v>
+        <v>89.05872495958354</v>
       </c>
       <c r="I19" t="n">
-        <v>40.55116665931323</v>
+        <v>40.65613045510087</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>33.13089891952247</v>
+        <v>33.23586271531011</v>
       </c>
       <c r="S19" t="n">
-        <v>133.967771580917</v>
+        <v>134.0727353767047</v>
       </c>
       <c r="T19" t="n">
-        <v>163.7476955256443</v>
+        <v>163.852659321432</v>
       </c>
       <c r="U19" t="n">
-        <v>230.410584455088</v>
+        <v>230.5155482508756</v>
       </c>
       <c r="V19" t="n">
-        <v>196.3363895733031</v>
+        <v>196.4413533690908</v>
       </c>
       <c r="W19" t="n">
-        <v>230.7217445860661</v>
+        <v>230.8267083818538</v>
       </c>
       <c r="X19" t="n">
-        <v>169.9084016385123</v>
+        <v>170.0133654342999</v>
       </c>
       <c r="Y19" t="n">
-        <v>162.7833996015699</v>
+        <v>162.8883633973576</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>326.9325879129557</v>
+        <v>327.0375517087434</v>
       </c>
       <c r="C20" t="n">
-        <v>309.4716380204827</v>
+        <v>309.5766018162703</v>
       </c>
       <c r="D20" t="n">
-        <v>298.8817878701581</v>
+        <v>298.9867516659457</v>
       </c>
       <c r="E20" t="n">
-        <v>326.1291163217369</v>
+        <v>326.2340801175246</v>
       </c>
       <c r="F20" t="n">
-        <v>351.0747919911865</v>
+        <v>351.1797557869742</v>
       </c>
       <c r="G20" t="n">
-        <v>355.1204719029286</v>
+        <v>355.2254356987162</v>
       </c>
       <c r="H20" t="n">
-        <v>238.8065106367956</v>
+        <v>76.11170785007286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>53.38650803765098</v>
+        <v>53.49147183343861</v>
       </c>
       <c r="T20" t="n">
-        <v>148.1167163890953</v>
+        <v>148.2216801848829</v>
       </c>
       <c r="U20" t="n">
-        <v>195.1939182083771</v>
+        <v>195.2988820041647</v>
       </c>
       <c r="V20" t="n">
-        <v>271.95100471961</v>
+        <v>272.0559685153977</v>
       </c>
       <c r="W20" t="n">
-        <v>143.6913721976312</v>
+        <v>293.5446787626758</v>
       </c>
       <c r="X20" t="n">
-        <v>313.9298469279441</v>
+        <v>314.0348107237318</v>
       </c>
       <c r="Y20" t="n">
-        <v>330.4366849055287</v>
+        <v>330.5416487013164</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247653</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>124.0307264314124</v>
+        <v>124.1356902272001</v>
       </c>
       <c r="C22" t="n">
-        <v>111.445567348103</v>
+        <v>111.5505311438906</v>
       </c>
       <c r="D22" t="n">
-        <v>92.81421926768748</v>
+        <v>92.91918306347512</v>
       </c>
       <c r="E22" t="n">
-        <v>90.63270889604429</v>
+        <v>90.73767269183193</v>
       </c>
       <c r="F22" t="n">
-        <v>89.61979427240637</v>
+        <v>89.72475806819401</v>
       </c>
       <c r="G22" t="n">
-        <v>110.2245545085033</v>
+        <v>110.329518304291</v>
       </c>
       <c r="H22" t="n">
-        <v>88.9537611637959</v>
+        <v>89.05872495958354</v>
       </c>
       <c r="I22" t="n">
-        <v>40.55116665931323</v>
+        <v>40.65613045510087</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>33.13089891952247</v>
+        <v>33.23586271531011</v>
       </c>
       <c r="S22" t="n">
-        <v>133.967771580917</v>
+        <v>134.0727353767047</v>
       </c>
       <c r="T22" t="n">
-        <v>163.7476955256443</v>
+        <v>163.852659321432</v>
       </c>
       <c r="U22" t="n">
-        <v>230.410584455088</v>
+        <v>230.5155482508756</v>
       </c>
       <c r="V22" t="n">
-        <v>196.3363895733031</v>
+        <v>196.4413533690908</v>
       </c>
       <c r="W22" t="n">
-        <v>230.7217445860661</v>
+        <v>230.8267083818538</v>
       </c>
       <c r="X22" t="n">
-        <v>169.9084016385123</v>
+        <v>170.0133654342999</v>
       </c>
       <c r="Y22" t="n">
-        <v>162.7833996015699</v>
+        <v>162.8883633973576</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>326.9325879129557</v>
+        <v>327.0375517087434</v>
       </c>
       <c r="C23" t="n">
-        <v>309.4716380204827</v>
+        <v>309.5766018162703</v>
       </c>
       <c r="D23" t="n">
-        <v>298.8817878701581</v>
+        <v>298.9867516659457</v>
       </c>
       <c r="E23" t="n">
-        <v>326.1291163217369</v>
+        <v>326.2340801175246</v>
       </c>
       <c r="F23" t="n">
-        <v>351.0747919911865</v>
+        <v>351.1797557869742</v>
       </c>
       <c r="G23" t="n">
-        <v>355.1204719029286</v>
+        <v>355.2254356987162</v>
       </c>
       <c r="H23" t="n">
-        <v>238.8065106367956</v>
+        <v>238.9114744325832</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>53.38650803765098</v>
+        <v>53.49147183343862</v>
       </c>
       <c r="T23" t="n">
-        <v>148.1167163890953</v>
+        <v>148.2216801848829</v>
       </c>
       <c r="U23" t="n">
-        <v>195.1939182083771</v>
+        <v>195.2988820041647</v>
       </c>
       <c r="V23" t="n">
-        <v>271.95100471961</v>
+        <v>272.0559685153977</v>
       </c>
       <c r="W23" t="n">
-        <v>293.4397149668881</v>
+        <v>293.5446787626758</v>
       </c>
       <c r="X23" t="n">
-        <v>313.9298469279441</v>
+        <v>314.0348107237318</v>
       </c>
       <c r="Y23" t="n">
-        <v>330.4366849055287</v>
+        <v>330.5416487013164</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247694</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>124.0307264314124</v>
+        <v>124.1356902272001</v>
       </c>
       <c r="C25" t="n">
-        <v>111.445567348103</v>
+        <v>111.5505311438906</v>
       </c>
       <c r="D25" t="n">
-        <v>92.81421926768748</v>
+        <v>92.91918306347512</v>
       </c>
       <c r="E25" t="n">
-        <v>90.63270889604429</v>
+        <v>90.73767269183193</v>
       </c>
       <c r="F25" t="n">
-        <v>89.61979427240637</v>
+        <v>89.72475806819401</v>
       </c>
       <c r="G25" t="n">
-        <v>110.2245545085033</v>
+        <v>110.329518304291</v>
       </c>
       <c r="H25" t="n">
-        <v>88.9537611637959</v>
+        <v>89.05872495958354</v>
       </c>
       <c r="I25" t="n">
-        <v>40.55116665931323</v>
+        <v>40.65613045510087</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>33.13089891952247</v>
+        <v>33.23586271531011</v>
       </c>
       <c r="S25" t="n">
-        <v>133.967771580917</v>
+        <v>134.0727353767047</v>
       </c>
       <c r="T25" t="n">
-        <v>163.7476955256443</v>
+        <v>163.852659321432</v>
       </c>
       <c r="U25" t="n">
-        <v>230.410584455088</v>
+        <v>230.5155482508756</v>
       </c>
       <c r="V25" t="n">
-        <v>196.3363895733031</v>
+        <v>196.4413533690908</v>
       </c>
       <c r="W25" t="n">
-        <v>230.7217445860661</v>
+        <v>230.8267083818538</v>
       </c>
       <c r="X25" t="n">
-        <v>169.9084016385123</v>
+        <v>170.0133654342999</v>
       </c>
       <c r="Y25" t="n">
-        <v>162.7833996015699</v>
+        <v>162.8883633973576</v>
       </c>
     </row>
     <row r="26">
@@ -2558,16 +2558,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
         <v>247.6326277687279</v>
@@ -2615,10 +2615,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.7587050448879</v>
+        <v>337.6647449244904</v>
       </c>
       <c r="C29" t="n">
-        <v>318.2977551524149</v>
+        <v>320.2037950320174</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020903</v>
+        <v>309.6139448816928</v>
       </c>
       <c r="E29" t="n">
-        <v>334.9552334536691</v>
+        <v>336.8612733332716</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231188</v>
+        <v>361.8069490027212</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348608</v>
+        <v>365.8526289144633</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687278</v>
+        <v>249.5386676483303</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958321</v>
+        <v>64.11866504918568</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210275</v>
+        <v>158.84887340063</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403093</v>
+        <v>205.9260752199118</v>
       </c>
       <c r="V29" t="n">
-        <v>280.7771218515422</v>
+        <v>282.6831617311447</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988203</v>
+        <v>304.1718719784228</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598764</v>
+        <v>324.6620039394788</v>
       </c>
       <c r="Y29" t="n">
-        <v>339.2628020374609</v>
+        <v>341.1688419170634</v>
       </c>
     </row>
     <row r="30">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633447</v>
+        <v>134.7628834429471</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>122.1777243596377</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996197</v>
+        <v>103.5463762792222</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797653</v>
+        <v>101.364865907579</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140434021</v>
+        <v>100.3519512839411</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>120.9567115200381</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572814</v>
+        <v>54.24440261370572</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124547</v>
+        <v>51.28332367084794</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.9570160514547</v>
+        <v>43.86305593105718</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128493</v>
+        <v>144.6999285924517</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575766</v>
+        <v>174.479852537179</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870202</v>
+        <v>241.1427414666227</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052354</v>
+        <v>207.0685465848378</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179984</v>
+        <v>241.4539015976008</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704445</v>
+        <v>180.640558650047</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335021</v>
+        <v>173.5155566131046</v>
       </c>
     </row>
     <row r="32">
@@ -3032,16 +3032,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
         <v>247.6326277687279</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,25 +3424,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D37" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3503,22 +3503,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C38" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E38" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H38" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3563,10 +3563,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y38" t="n">
         <v>339.262802037461</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797657</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433864</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572818</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3724,7 +3724,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
         <v>171.6095167335022</v>
@@ -3740,19 +3740,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E41" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G41" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
         <v>247.6326277687279</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3800,10 +3800,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X41" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
         <v>339.262802037461</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>10.86425143297768</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="11">
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1656.080979380563</v>
+        <v>1154.890599503021</v>
       </c>
       <c r="C11" t="n">
-        <v>1656.080979380563</v>
+        <v>794.7373283566945</v>
       </c>
       <c r="D11" t="n">
-        <v>1306.730550604047</v>
+        <v>794.7373283566945</v>
       </c>
       <c r="E11" t="n">
-        <v>929.8575678360376</v>
+        <v>794.7373283566945</v>
       </c>
       <c r="F11" t="n">
-        <v>527.7869328766647</v>
+        <v>794.7373283566945</v>
       </c>
       <c r="G11" t="n">
-        <v>121.6297525518957</v>
+        <v>388.4741239957765</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>99.69976939862917</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052369</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3224.124398930352</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3026.955897108659</v>
       </c>
       <c r="U11" t="n">
-        <v>3080.990614713243</v>
+        <v>2782.234666176581</v>
       </c>
       <c r="V11" t="n">
-        <v>2758.842997199907</v>
+        <v>2459.981024627096</v>
       </c>
       <c r="W11" t="n">
-        <v>2414.989611760027</v>
+        <v>2116.021615151067</v>
       </c>
       <c r="X11" t="n">
-        <v>2414.989611760027</v>
+        <v>1914.011279954784</v>
       </c>
       <c r="Y11" t="n">
-        <v>2033.76554961445</v>
+        <v>1532.681193773057</v>
       </c>
     </row>
     <row r="12">
@@ -5109,22 +5109,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>821.8116575115876</v>
+        <v>108.7312178224169</v>
       </c>
       <c r="C13" t="n">
-        <v>661.7907444139153</v>
+        <v>108.7312178224169</v>
       </c>
       <c r="D13" t="n">
-        <v>661.7907444139153</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E13" t="n">
-        <v>522.7929206617569</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F13" t="n">
-        <v>384.8182429940812</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>226.0306761990346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>154.9225237836034</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>120.372604839732</v>
+        <v>120.2686906819022</v>
       </c>
       <c r="K13" t="n">
-        <v>333.0976437492214</v>
+        <v>332.8898154335618</v>
       </c>
       <c r="L13" t="n">
-        <v>658.3952981583304</v>
+        <v>658.083555684841</v>
       </c>
       <c r="M13" t="n">
-        <v>1011.290199718492</v>
+        <v>1010.874543087173</v>
       </c>
       <c r="N13" t="n">
-        <v>1361.43643238497</v>
+        <v>1360.916861595821</v>
       </c>
       <c r="O13" t="n">
-        <v>1669.503887265996</v>
+        <v>1668.880402319018</v>
       </c>
       <c r="P13" t="n">
-        <v>1910.849243660269</v>
+        <v>1910.12184455546</v>
       </c>
       <c r="Q13" t="n">
-        <v>1997.197395773396</v>
+        <v>1996.366082510758</v>
       </c>
       <c r="R13" t="n">
-        <v>1997.197395773396</v>
+        <v>1915.344871062372</v>
       </c>
       <c r="S13" t="n">
-        <v>1814.426781430457</v>
+        <v>1732.468232683284</v>
       </c>
       <c r="T13" t="n">
-        <v>1601.575435830218</v>
+        <v>1519.510863046895</v>
       </c>
       <c r="U13" t="n">
-        <v>1321.387838786096</v>
+        <v>1239.217241966624</v>
       </c>
       <c r="V13" t="n">
-        <v>1321.387838786096</v>
+        <v>993.3419995548227</v>
       </c>
       <c r="W13" t="n">
-        <v>1040.88593857937</v>
+        <v>712.7340753119475</v>
       </c>
       <c r="X13" t="n">
-        <v>821.8116575115876</v>
+        <v>493.5537702080157</v>
       </c>
       <c r="Y13" t="n">
-        <v>821.8116575115876</v>
+        <v>281.5704368585711</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2206.949031864595</v>
+        <v>1445.740206504336</v>
       </c>
       <c r="C14" t="n">
-        <v>1846.901784754418</v>
+        <v>1445.740206504336</v>
       </c>
       <c r="D14" t="n">
-        <v>1497.551355977902</v>
+        <v>1172.777032766348</v>
       </c>
       <c r="E14" t="n">
-        <v>1120.678373209892</v>
+        <v>797.7233187698688</v>
       </c>
       <c r="F14" t="n">
-        <v>718.6077382505191</v>
+        <v>797.7233187698688</v>
       </c>
       <c r="G14" t="n">
-        <v>312.4505579257506</v>
+        <v>393.38540721663</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5943676654458</v>
+        <v>106.5363454271619</v>
       </c>
       <c r="I14" t="n">
-        <v>75.51273873514909</v>
+        <v>75.27398526839528</v>
       </c>
       <c r="J14" t="n">
-        <v>431.7975187145275</v>
+        <v>264.1531162274207</v>
       </c>
       <c r="K14" t="n">
-        <v>765.6168924043739</v>
+        <v>597.972489917267</v>
       </c>
       <c r="L14" t="n">
-        <v>1216.651105652782</v>
+        <v>1268.146435386752</v>
       </c>
       <c r="M14" t="n">
-        <v>1750.183010324707</v>
+        <v>1801.678340058677</v>
       </c>
       <c r="N14" t="n">
-        <v>2296.961827383489</v>
+        <v>2348.457157117459</v>
       </c>
       <c r="O14" t="n">
-        <v>3073.559142087792</v>
+        <v>2851.429627996796</v>
       </c>
       <c r="P14" t="n">
-        <v>3468.33350844497</v>
+        <v>3246.203994353973</v>
       </c>
       <c r="Q14" t="n">
-        <v>3716.619870200652</v>
+        <v>3704.682196862962</v>
       </c>
       <c r="R14" t="n">
-        <v>3775.636936757454</v>
+        <v>3763.699263419764</v>
       </c>
       <c r="S14" t="n">
-        <v>3674.261538114784</v>
+        <v>3664.143133548624</v>
       </c>
       <c r="T14" t="n">
-        <v>3674.261538114784</v>
+        <v>3468.899924534611</v>
       </c>
       <c r="U14" t="n">
-        <v>3674.261538114784</v>
+        <v>3226.103986410212</v>
       </c>
       <c r="V14" t="n">
-        <v>3674.261538114784</v>
+        <v>2905.775637668406</v>
       </c>
       <c r="W14" t="n">
-        <v>3330.408152674904</v>
+        <v>2563.741521000056</v>
       </c>
       <c r="X14" t="n">
-        <v>2965.857664244059</v>
+        <v>2201.010301340741</v>
       </c>
       <c r="Y14" t="n">
-        <v>2584.633602098482</v>
+        <v>1821.605507966693</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>950.5444767840736</v>
+        <v>950.3057233173205</v>
       </c>
       <c r="C15" t="n">
-        <v>776.0914475029466</v>
+        <v>775.8526940361935</v>
       </c>
       <c r="D15" t="n">
-        <v>627.1570378416955</v>
+        <v>626.9182843749422</v>
       </c>
       <c r="E15" t="n">
-        <v>467.9195828362399</v>
+        <v>467.6808293694868</v>
       </c>
       <c r="F15" t="n">
-        <v>321.385024863125</v>
+        <v>321.1462713963717</v>
       </c>
       <c r="G15" t="n">
-        <v>185.0219246957435</v>
+        <v>184.7831712289898</v>
       </c>
       <c r="H15" t="n">
-        <v>94.52003033361098</v>
+        <v>94.28127686685735</v>
       </c>
       <c r="I15" t="n">
-        <v>75.51273873514909</v>
+        <v>75.27398526839528</v>
       </c>
       <c r="J15" t="n">
-        <v>169.1900082257662</v>
+        <v>168.9512547590126</v>
       </c>
       <c r="K15" t="n">
-        <v>407.4542072061133</v>
+        <v>407.2154537393596</v>
       </c>
       <c r="L15" t="n">
-        <v>774.1523675187785</v>
+        <v>773.9136140520252</v>
       </c>
       <c r="M15" t="n">
-        <v>1221.428692741094</v>
+        <v>1221.189939274341</v>
       </c>
       <c r="N15" t="n">
-        <v>1694.951736295549</v>
+        <v>1694.712982828795</v>
       </c>
       <c r="O15" t="n">
-        <v>2105.913015713604</v>
+        <v>2105.67426224685</v>
       </c>
       <c r="P15" t="n">
-        <v>2416.412607189707</v>
+        <v>2416.173853722953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2574.054164836306</v>
+        <v>2573.815411369553</v>
       </c>
       <c r="R15" t="n">
-        <v>2573.909811428822</v>
+        <v>2573.671057962068</v>
       </c>
       <c r="S15" t="n">
-        <v>2444.471924922302</v>
+        <v>2444.233171455548</v>
       </c>
       <c r="T15" t="n">
-        <v>2251.828924600157</v>
+        <v>2251.590171133404</v>
       </c>
       <c r="U15" t="n">
-        <v>2023.761077734573</v>
+        <v>2023.522324267819</v>
       </c>
       <c r="V15" t="n">
-        <v>1788.60896950283</v>
+        <v>1788.370216036077</v>
       </c>
       <c r="W15" t="n">
-        <v>1534.371612774628</v>
+        <v>1534.132859307875</v>
       </c>
       <c r="X15" t="n">
-        <v>1326.520112569096</v>
+        <v>1326.281359102342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1118.759813804142</v>
+        <v>1118.521060337388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>592.2400331933871</v>
+        <v>149.916557774192</v>
       </c>
       <c r="C16" t="n">
-        <v>592.2400331933871</v>
+        <v>149.916557774192</v>
       </c>
       <c r="D16" t="n">
-        <v>509.576900149779</v>
+        <v>75.27398526839528</v>
       </c>
       <c r="E16" t="n">
-        <v>509.576900149779</v>
+        <v>75.27398526839528</v>
       </c>
       <c r="F16" t="n">
-        <v>371.6022224821032</v>
+        <v>75.27398526839528</v>
       </c>
       <c r="G16" t="n">
-        <v>212.8146556870567</v>
+        <v>75.27398526839528</v>
       </c>
       <c r="H16" t="n">
-        <v>75.51273873514909</v>
+        <v>75.27398526839528</v>
       </c>
       <c r="I16" t="n">
-        <v>75.51273873514909</v>
+        <v>75.27398526839528</v>
       </c>
       <c r="J16" t="n">
-        <v>129.3732271426975</v>
+        <v>130.9175389989204</v>
       </c>
       <c r="K16" t="n">
-        <v>342.0982660521867</v>
+        <v>345.4256432313863</v>
       </c>
       <c r="L16" t="n">
-        <v>667.3959204612958</v>
+        <v>672.5063629634722</v>
       </c>
       <c r="M16" t="n">
-        <v>1020.290822021458</v>
+        <v>1027.184329846611</v>
       </c>
       <c r="N16" t="n">
-        <v>1370.437054687935</v>
+        <v>1379.113627836065</v>
       </c>
       <c r="O16" t="n">
-        <v>1678.504509568961</v>
+        <v>1688.964148040068</v>
       </c>
       <c r="P16" t="n">
-        <v>1919.849865963233</v>
+        <v>1932.092569757317</v>
       </c>
       <c r="Q16" t="n">
-        <v>2006.198018076361</v>
+        <v>2020.223787193421</v>
       </c>
       <c r="R16" t="n">
-        <v>2006.198018076361</v>
+        <v>1941.127868552713</v>
       </c>
       <c r="S16" t="n">
-        <v>1823.427403733422</v>
+        <v>1760.176522981304</v>
       </c>
       <c r="T16" t="n">
-        <v>1610.576058133183</v>
+        <v>1549.144446152595</v>
       </c>
       <c r="U16" t="n">
-        <v>1330.388461089061</v>
+        <v>1270.776117880003</v>
       </c>
       <c r="V16" t="n">
-        <v>1084.619242713409</v>
+        <v>1026.826168275881</v>
       </c>
       <c r="W16" t="n">
-        <v>804.1173425066827</v>
+        <v>748.1435368406853</v>
       </c>
       <c r="X16" t="n">
-        <v>804.1173425066827</v>
+        <v>530.8885245444325</v>
       </c>
       <c r="Y16" t="n">
-        <v>592.2400331933871</v>
+        <v>320.830484002667</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1973.981745546552</v>
+        <v>1809.93492762749</v>
       </c>
       <c r="C17" t="n">
-        <v>1661.384131384448</v>
+        <v>1497.231289429237</v>
       </c>
       <c r="D17" t="n">
-        <v>1359.483335556005</v>
+        <v>1195.224469564645</v>
       </c>
       <c r="E17" t="n">
-        <v>1030.059985736069</v>
+        <v>865.6950957085598</v>
       </c>
       <c r="F17" t="n">
-        <v>675.4389837247694</v>
+        <v>675.4122783303139</v>
       </c>
       <c r="G17" t="n">
-        <v>316.7314363480739</v>
+        <v>316.5987069174693</v>
       </c>
       <c r="H17" t="n">
-        <v>75.51273873514909</v>
+        <v>75.27398526839528</v>
       </c>
       <c r="I17" t="n">
-        <v>75.51273873514909</v>
+        <v>75.27398526839528</v>
       </c>
       <c r="J17" t="n">
-        <v>431.7975187145275</v>
+        <v>316.4925097516852</v>
       </c>
       <c r="K17" t="n">
-        <v>765.6168924043739</v>
+        <v>650.3118834415316</v>
       </c>
       <c r="L17" t="n">
-        <v>1216.651105652782</v>
+        <v>1101.34609668994</v>
       </c>
       <c r="M17" t="n">
-        <v>1750.183010324707</v>
+        <v>1634.878001361865</v>
       </c>
       <c r="N17" t="n">
-        <v>2296.961827383489</v>
+        <v>2181.656818420647</v>
       </c>
       <c r="O17" t="n">
-        <v>2799.934298262825</v>
+        <v>3061.621468750101</v>
       </c>
       <c r="P17" t="n">
-        <v>3194.708664620003</v>
+        <v>3456.395835107279</v>
       </c>
       <c r="Q17" t="n">
-        <v>3653.186867128991</v>
+        <v>3704.682196862962</v>
       </c>
       <c r="R17" t="n">
-        <v>3775.636936757454</v>
+        <v>3763.699263419764</v>
       </c>
       <c r="S17" t="n">
-        <v>3721.711171062857</v>
+        <v>3709.667473689018</v>
       </c>
       <c r="T17" t="n">
-        <v>3721.711171062857</v>
+        <v>3559.948604815399</v>
       </c>
       <c r="U17" t="n">
-        <v>3526.19370456971</v>
+        <v>3362.677006831394</v>
       </c>
       <c r="V17" t="n">
-        <v>3251.495720004447</v>
+        <v>3087.872998229982</v>
       </c>
       <c r="W17" t="n">
-        <v>2955.091967512641</v>
+        <v>2791.363221702027</v>
       </c>
       <c r="X17" t="n">
-        <v>2637.991112029869</v>
+        <v>2474.156342183106</v>
       </c>
       <c r="Y17" t="n">
-        <v>2304.216682832365</v>
+        <v>2140.275888949453</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>950.5444767840744</v>
+        <v>950.3057233173201</v>
       </c>
       <c r="C18" t="n">
-        <v>776.0914475029474</v>
+        <v>775.8526940361932</v>
       </c>
       <c r="D18" t="n">
-        <v>627.1570378416961</v>
+        <v>626.9182843749419</v>
       </c>
       <c r="E18" t="n">
-        <v>467.9195828362406</v>
+        <v>467.6808293694864</v>
       </c>
       <c r="F18" t="n">
-        <v>321.3850248631255</v>
+        <v>321.1462713963714</v>
       </c>
       <c r="G18" t="n">
-        <v>185.0219246957436</v>
+        <v>184.7831712289895</v>
       </c>
       <c r="H18" t="n">
-        <v>94.52003033361115</v>
+        <v>94.281276866857</v>
       </c>
       <c r="I18" t="n">
-        <v>75.51273873514909</v>
+        <v>75.27398526839528</v>
       </c>
       <c r="J18" t="n">
-        <v>169.1900082257663</v>
+        <v>168.9512547590126</v>
       </c>
       <c r="K18" t="n">
-        <v>407.4542072061134</v>
+        <v>407.2154537393596</v>
       </c>
       <c r="L18" t="n">
-        <v>774.1523675187793</v>
+        <v>773.913614052025</v>
       </c>
       <c r="M18" t="n">
-        <v>1221.428692741095</v>
+        <v>1221.189939274341</v>
       </c>
       <c r="N18" t="n">
-        <v>1694.95173629555</v>
+        <v>1694.712982828795</v>
       </c>
       <c r="O18" t="n">
-        <v>2105.913015713604</v>
+        <v>2105.67426224685</v>
       </c>
       <c r="P18" t="n">
-        <v>2416.412607189707</v>
+        <v>2416.173853722953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2574.054164836307</v>
+        <v>2573.815411369553</v>
       </c>
       <c r="R18" t="n">
-        <v>2573.909811428822</v>
+        <v>2573.671057962068</v>
       </c>
       <c r="S18" t="n">
-        <v>2444.471924922302</v>
+        <v>2444.233171455548</v>
       </c>
       <c r="T18" t="n">
-        <v>2251.828924600158</v>
+        <v>2251.590171133404</v>
       </c>
       <c r="U18" t="n">
-        <v>2023.761077734573</v>
+        <v>2023.522324267819</v>
       </c>
       <c r="V18" t="n">
-        <v>1788.608969502831</v>
+        <v>1788.370216036076</v>
       </c>
       <c r="W18" t="n">
-        <v>1534.371612774629</v>
+        <v>1534.132859307875</v>
       </c>
       <c r="X18" t="n">
-        <v>1326.520112569096</v>
+        <v>1326.281359102342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1118.759813804142</v>
+        <v>1118.521060337388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>706.0599832966174</v>
+        <v>706.5633980829075</v>
       </c>
       <c r="C19" t="n">
-        <v>593.4887031470184</v>
+        <v>593.8860938971594</v>
       </c>
       <c r="D19" t="n">
-        <v>499.7369665129906</v>
+        <v>500.0283332269825</v>
       </c>
       <c r="E19" t="n">
-        <v>408.1887757089055</v>
+        <v>408.3741183867483</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6637309893031</v>
+        <v>317.7430496309967</v>
       </c>
       <c r="G19" t="n">
-        <v>206.32579714233</v>
+        <v>206.2990917478745</v>
       </c>
       <c r="H19" t="n">
-        <v>116.4735131384958</v>
+        <v>116.3407837078911</v>
       </c>
       <c r="I19" t="n">
-        <v>75.51273873514909</v>
+        <v>75.27398526839528</v>
       </c>
       <c r="J19" t="n">
-        <v>120.6353711820846</v>
+        <v>175.5359447705207</v>
       </c>
       <c r="K19" t="n">
-        <v>333.0483540143812</v>
+        <v>390.0609688125223</v>
       </c>
       <c r="L19" t="n">
-        <v>704.8513936758969</v>
+        <v>761.7600943162082</v>
       </c>
       <c r="M19" t="n">
-        <v>1049.008439275446</v>
+        <v>1105.917139915757</v>
       </c>
       <c r="N19" t="n">
-        <v>1390.41681598131</v>
+        <v>1502.464843676812</v>
       </c>
       <c r="O19" t="n">
-        <v>1744.989656114743</v>
+        <v>1801.794442597225</v>
       </c>
       <c r="P19" t="n">
-        <v>2032.840397761422</v>
+        <v>2034.401943030884</v>
       </c>
       <c r="Q19" t="n">
-        <v>2165.693935126957</v>
+        <v>2167.151566238589</v>
       </c>
       <c r="R19" t="n">
-        <v>2132.228380662792</v>
+        <v>2133.579987738276</v>
       </c>
       <c r="S19" t="n">
-        <v>1996.907399267927</v>
+        <v>1998.152982307261</v>
       </c>
       <c r="T19" t="n">
-        <v>1831.505686615761</v>
+        <v>1832.645245618946</v>
       </c>
       <c r="U19" t="n">
-        <v>1598.767722519712</v>
+        <v>1599.801257486748</v>
       </c>
       <c r="V19" t="n">
-        <v>1400.448137092133</v>
+        <v>1401.37564802302</v>
       </c>
       <c r="W19" t="n">
-        <v>1167.395869833481</v>
+        <v>1168.217356728218</v>
       </c>
       <c r="X19" t="n">
-        <v>995.7712217137713</v>
+        <v>996.4866845723598</v>
       </c>
       <c r="Y19" t="n">
-        <v>831.3435453485491</v>
+        <v>831.9529841709884</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1973.981745546551</v>
+        <v>1809.93492762749</v>
       </c>
       <c r="C20" t="n">
-        <v>1661.384131384448</v>
+        <v>1497.231289429238</v>
       </c>
       <c r="D20" t="n">
-        <v>1359.483335556005</v>
+        <v>1195.224469564646</v>
       </c>
       <c r="E20" t="n">
-        <v>1030.059985736069</v>
+        <v>865.6950957085605</v>
       </c>
       <c r="F20" t="n">
-        <v>675.4389837247696</v>
+        <v>510.9680696611117</v>
       </c>
       <c r="G20" t="n">
-        <v>316.7314363480739</v>
+        <v>152.1544982482669</v>
       </c>
       <c r="H20" t="n">
-        <v>75.51273873514909</v>
+        <v>75.27398526839528</v>
       </c>
       <c r="I20" t="n">
-        <v>75.51273873514909</v>
+        <v>75.27398526839528</v>
       </c>
       <c r="J20" t="n">
-        <v>431.7975187145275</v>
+        <v>264.1531162274207</v>
       </c>
       <c r="K20" t="n">
-        <v>765.6168924043739</v>
+        <v>650.3118834415316</v>
       </c>
       <c r="L20" t="n">
-        <v>1216.651105652782</v>
+        <v>1101.34609668994</v>
       </c>
       <c r="M20" t="n">
-        <v>1750.183010324707</v>
+        <v>1634.878001361865</v>
       </c>
       <c r="N20" t="n">
-        <v>2296.961827383489</v>
+        <v>2181.656818420647</v>
       </c>
       <c r="O20" t="n">
-        <v>2799.934298262825</v>
+        <v>3061.621468750101</v>
       </c>
       <c r="P20" t="n">
-        <v>3194.708664620003</v>
+        <v>3456.395835107279</v>
       </c>
       <c r="Q20" t="n">
-        <v>3653.186867128991</v>
+        <v>3704.682196862962</v>
       </c>
       <c r="R20" t="n">
-        <v>3775.636936757454</v>
+        <v>3763.699263419764</v>
       </c>
       <c r="S20" t="n">
-        <v>3721.711171062858</v>
+        <v>3709.667473689018</v>
       </c>
       <c r="T20" t="n">
-        <v>3572.098326225388</v>
+        <v>3559.948604815399</v>
       </c>
       <c r="U20" t="n">
-        <v>3374.932752277532</v>
+        <v>3362.677006831394</v>
       </c>
       <c r="V20" t="n">
-        <v>3100.234767712269</v>
+        <v>3087.872998229982</v>
       </c>
       <c r="W20" t="n">
-        <v>2955.091967512641</v>
+        <v>2791.363221702027</v>
       </c>
       <c r="X20" t="n">
-        <v>2637.991112029869</v>
+        <v>2474.156342183106</v>
       </c>
       <c r="Y20" t="n">
-        <v>2304.216682832365</v>
+        <v>2140.275888949453</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>950.5444767840734</v>
+        <v>950.3057233173205</v>
       </c>
       <c r="C21" t="n">
-        <v>776.0914475029464</v>
+        <v>775.8526940361935</v>
       </c>
       <c r="D21" t="n">
-        <v>627.1570378416951</v>
+        <v>626.9182843749422</v>
       </c>
       <c r="E21" t="n">
-        <v>467.9195828362396</v>
+        <v>467.6808293694868</v>
       </c>
       <c r="F21" t="n">
-        <v>321.3850248631246</v>
+        <v>321.1462713963717</v>
       </c>
       <c r="G21" t="n">
-        <v>185.0219246957427</v>
+        <v>184.7831712289898</v>
       </c>
       <c r="H21" t="n">
-        <v>94.52003033361022</v>
+        <v>94.28127686685735</v>
       </c>
       <c r="I21" t="n">
-        <v>75.51273873514909</v>
+        <v>75.27398526839528</v>
       </c>
       <c r="J21" t="n">
-        <v>169.1900082257663</v>
+        <v>168.9512547590128</v>
       </c>
       <c r="K21" t="n">
-        <v>407.4542072061134</v>
+        <v>407.2154537393599</v>
       </c>
       <c r="L21" t="n">
-        <v>774.1523675187786</v>
+        <v>773.9136140520252</v>
       </c>
       <c r="M21" t="n">
-        <v>1221.428692741094</v>
+        <v>1221.189939274341</v>
       </c>
       <c r="N21" t="n">
-        <v>1694.951736295549</v>
+        <v>1694.712982828795</v>
       </c>
       <c r="O21" t="n">
-        <v>2105.913015713604</v>
+        <v>2105.67426224685</v>
       </c>
       <c r="P21" t="n">
-        <v>2416.412607189706</v>
+        <v>2416.173853722953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2574.054164836306</v>
+        <v>2573.815411369553</v>
       </c>
       <c r="R21" t="n">
-        <v>2573.909811428821</v>
+        <v>2573.671057962068</v>
       </c>
       <c r="S21" t="n">
-        <v>2444.471924922301</v>
+        <v>2444.233171455548</v>
       </c>
       <c r="T21" t="n">
-        <v>2251.828924600157</v>
+        <v>2251.590171133404</v>
       </c>
       <c r="U21" t="n">
-        <v>2023.761077734572</v>
+        <v>2023.522324267819</v>
       </c>
       <c r="V21" t="n">
-        <v>1788.60896950283</v>
+        <v>1788.370216036077</v>
       </c>
       <c r="W21" t="n">
-        <v>1534.371612774628</v>
+        <v>1534.132859307875</v>
       </c>
       <c r="X21" t="n">
-        <v>1326.520112569095</v>
+        <v>1326.281359102342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1118.759813804141</v>
+        <v>1118.521060337388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>706.0599832966174</v>
+        <v>706.5633980829075</v>
       </c>
       <c r="C22" t="n">
-        <v>593.4887031470184</v>
+        <v>593.8860938971594</v>
       </c>
       <c r="D22" t="n">
-        <v>499.7369665129906</v>
+        <v>500.0283332269825</v>
       </c>
       <c r="E22" t="n">
-        <v>408.1887757089055</v>
+        <v>408.3741183867483</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6637309893031</v>
+        <v>317.7430496309967</v>
       </c>
       <c r="G22" t="n">
-        <v>206.32579714233</v>
+        <v>206.2990917478745</v>
       </c>
       <c r="H22" t="n">
-        <v>116.4735131384958</v>
+        <v>116.3407837078911</v>
       </c>
       <c r="I22" t="n">
-        <v>75.51273873514909</v>
+        <v>75.27398526839528</v>
       </c>
       <c r="J22" t="n">
-        <v>175.8786123951043</v>
+        <v>120.3966177153308</v>
       </c>
       <c r="K22" t="n">
-        <v>435.1090365570002</v>
+        <v>379.523127719397</v>
       </c>
       <c r="L22" t="n">
-        <v>751.6688350054962</v>
+        <v>696.0829261678931</v>
       </c>
       <c r="M22" t="n">
-        <v>1151.069121818065</v>
+        <v>1050.777812860567</v>
       </c>
       <c r="N22" t="n">
-        <v>1492.477498523929</v>
+        <v>1447.325516621621</v>
       </c>
       <c r="O22" t="n">
-        <v>1800.232897327763</v>
+        <v>1746.655115542035</v>
       </c>
       <c r="P22" t="n">
-        <v>2032.840397761422</v>
+        <v>2034.401943030884</v>
       </c>
       <c r="Q22" t="n">
-        <v>2165.693935126957</v>
+        <v>2167.151566238589</v>
       </c>
       <c r="R22" t="n">
-        <v>2132.228380662792</v>
+        <v>2133.579987738276</v>
       </c>
       <c r="S22" t="n">
-        <v>1996.907399267927</v>
+        <v>1998.152982307261</v>
       </c>
       <c r="T22" t="n">
-        <v>1831.505686615761</v>
+        <v>1832.645245618946</v>
       </c>
       <c r="U22" t="n">
-        <v>1598.767722519712</v>
+        <v>1599.801257486748</v>
       </c>
       <c r="V22" t="n">
-        <v>1400.448137092133</v>
+        <v>1401.37564802302</v>
       </c>
       <c r="W22" t="n">
-        <v>1167.395869833481</v>
+        <v>1168.217356728218</v>
       </c>
       <c r="X22" t="n">
-        <v>995.7712217137713</v>
+        <v>996.4866845723598</v>
       </c>
       <c r="Y22" t="n">
-        <v>831.3435453485491</v>
+        <v>831.9529841709884</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1977.068703756597</v>
+        <v>1977.735140555248</v>
       </c>
       <c r="C23" t="n">
-        <v>1664.471089594493</v>
+        <v>1665.031502356995</v>
       </c>
       <c r="D23" t="n">
-        <v>1362.57029376605</v>
+        <v>1363.024682492403</v>
       </c>
       <c r="E23" t="n">
-        <v>1033.146943946114</v>
+        <v>1033.495308636318</v>
       </c>
       <c r="F23" t="n">
-        <v>678.5259419348145</v>
+        <v>678.7682825888692</v>
       </c>
       <c r="G23" t="n">
-        <v>319.8183945581184</v>
+        <v>319.9547111760244</v>
       </c>
       <c r="H23" t="n">
-        <v>78.59969694519354</v>
+        <v>78.62998952695044</v>
       </c>
       <c r="I23" t="n">
-        <v>78.59969694519354</v>
+        <v>78.62998952695044</v>
       </c>
       <c r="J23" t="n">
-        <v>434.884476924572</v>
+        <v>267.5091204859758</v>
       </c>
       <c r="K23" t="n">
-        <v>768.7038506144183</v>
+        <v>601.3284941758222</v>
       </c>
       <c r="L23" t="n">
-        <v>1219.738063862827</v>
+        <v>1052.362707424231</v>
       </c>
       <c r="M23" t="n">
-        <v>1753.269968534751</v>
+        <v>1737.618958615369</v>
       </c>
       <c r="N23" t="n">
-        <v>2300.048785593533</v>
+        <v>2284.397775674151</v>
       </c>
       <c r="O23" t="n">
-        <v>2803.02125647287</v>
+        <v>3164.362426003606</v>
       </c>
       <c r="P23" t="n">
-        <v>3347.430322519634</v>
+        <v>3559.136792360784</v>
       </c>
       <c r="Q23" t="n">
-        <v>3805.908525028622</v>
+        <v>3807.423154116466</v>
       </c>
       <c r="R23" t="n">
-        <v>3929.984847259677</v>
+        <v>3931.499476347522</v>
       </c>
       <c r="S23" t="n">
-        <v>3876.05908156508</v>
+        <v>3877.467686616776</v>
       </c>
       <c r="T23" t="n">
-        <v>3726.44623672761</v>
+        <v>3727.748817743156</v>
       </c>
       <c r="U23" t="n">
-        <v>3529.280662779755</v>
+        <v>3530.477219759152</v>
       </c>
       <c r="V23" t="n">
-        <v>3254.582678214492</v>
+        <v>3255.67321115774</v>
       </c>
       <c r="W23" t="n">
-        <v>2958.178925722686</v>
+        <v>2959.163434629785</v>
       </c>
       <c r="X23" t="n">
-        <v>2641.078070239914</v>
+        <v>2641.956555110864</v>
       </c>
       <c r="Y23" t="n">
-        <v>2307.303641042411</v>
+        <v>2308.076101877211</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>953.6314349941189</v>
+        <v>953.6617275758751</v>
       </c>
       <c r="C24" t="n">
-        <v>779.1784057129919</v>
+        <v>779.2086982947482</v>
       </c>
       <c r="D24" t="n">
-        <v>630.2439960517406</v>
+        <v>630.2742886334969</v>
       </c>
       <c r="E24" t="n">
-        <v>471.0065410462851</v>
+        <v>471.0368336280414</v>
       </c>
       <c r="F24" t="n">
-        <v>324.47198307317</v>
+        <v>324.5022756549264</v>
       </c>
       <c r="G24" t="n">
-        <v>188.1088829057881</v>
+        <v>188.1391754875445</v>
       </c>
       <c r="H24" t="n">
-        <v>97.6069885436556</v>
+        <v>97.637281125412</v>
       </c>
       <c r="I24" t="n">
-        <v>78.59969694519354</v>
+        <v>78.62998952695044</v>
       </c>
       <c r="J24" t="n">
-        <v>172.2769664358108</v>
+        <v>172.3072590175677</v>
       </c>
       <c r="K24" t="n">
-        <v>410.5411654161579</v>
+        <v>410.5714579979148</v>
       </c>
       <c r="L24" t="n">
-        <v>777.2393257288231</v>
+        <v>777.2696183105801</v>
       </c>
       <c r="M24" t="n">
-        <v>1224.515650951139</v>
+        <v>1224.545943532896</v>
       </c>
       <c r="N24" t="n">
-        <v>1698.038694505593</v>
+        <v>1698.06898708735</v>
       </c>
       <c r="O24" t="n">
-        <v>2108.999973923648</v>
+        <v>2109.030266505405</v>
       </c>
       <c r="P24" t="n">
-        <v>2419.499565399751</v>
+        <v>2419.529857981508</v>
       </c>
       <c r="Q24" t="n">
-        <v>2577.141123046351</v>
+        <v>2577.171415628108</v>
       </c>
       <c r="R24" t="n">
-        <v>2576.996769638867</v>
+        <v>2577.027062220623</v>
       </c>
       <c r="S24" t="n">
-        <v>2447.558883132347</v>
+        <v>2447.589175714103</v>
       </c>
       <c r="T24" t="n">
-        <v>2254.915882810202</v>
+        <v>2254.946175391959</v>
       </c>
       <c r="U24" t="n">
-        <v>2026.848035944618</v>
+        <v>2026.878328526374</v>
       </c>
       <c r="V24" t="n">
-        <v>1791.695927712875</v>
+        <v>1791.726220294632</v>
       </c>
       <c r="W24" t="n">
-        <v>1537.458570984674</v>
+        <v>1537.48886356643</v>
       </c>
       <c r="X24" t="n">
-        <v>1329.607070779141</v>
+        <v>1329.637363360897</v>
       </c>
       <c r="Y24" t="n">
-        <v>1121.846772014187</v>
+        <v>1121.877064595943</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>709.1469415066618</v>
+        <v>709.9194023414626</v>
       </c>
       <c r="C25" t="n">
-        <v>596.5756613570629</v>
+        <v>597.2420981557145</v>
       </c>
       <c r="D25" t="n">
-        <v>502.8239247230351</v>
+        <v>503.3843374855376</v>
       </c>
       <c r="E25" t="n">
-        <v>411.27573391895</v>
+        <v>411.7301226453034</v>
       </c>
       <c r="F25" t="n">
-        <v>320.7506891993476</v>
+        <v>321.0990538895518</v>
       </c>
       <c r="G25" t="n">
-        <v>209.4127553523745</v>
+        <v>209.6550960064296</v>
       </c>
       <c r="H25" t="n">
-        <v>119.5604713485402</v>
+        <v>119.6967879664463</v>
       </c>
       <c r="I25" t="n">
-        <v>78.59969694519354</v>
+        <v>78.62998952695044</v>
       </c>
       <c r="J25" t="n">
-        <v>123.7223293921291</v>
+        <v>178.8919490290758</v>
       </c>
       <c r="K25" t="n">
-        <v>336.1353122244257</v>
+        <v>393.4169730710767</v>
       </c>
       <c r="L25" t="n">
-        <v>652.6951106729218</v>
+        <v>765.1160985747626</v>
       </c>
       <c r="M25" t="n">
-        <v>1052.09539748549</v>
+        <v>1164.412471229502</v>
       </c>
       <c r="N25" t="n">
-        <v>1393.503774191355</v>
+        <v>1505.820847935366</v>
       </c>
       <c r="O25" t="n">
-        <v>1748.076614324788</v>
+        <v>1805.15044685578</v>
       </c>
       <c r="P25" t="n">
-        <v>2035.927355971467</v>
+        <v>2092.897274344629</v>
       </c>
       <c r="Q25" t="n">
-        <v>2168.780893337001</v>
+        <v>2170.507570497144</v>
       </c>
       <c r="R25" t="n">
-        <v>2135.315338872837</v>
+        <v>2136.935991996831</v>
       </c>
       <c r="S25" t="n">
-        <v>1999.994357477971</v>
+        <v>2001.508986565816</v>
       </c>
       <c r="T25" t="n">
-        <v>1834.592644825805</v>
+        <v>1836.001249877501</v>
       </c>
       <c r="U25" t="n">
-        <v>1601.854680729757</v>
+        <v>1603.157261745303</v>
       </c>
       <c r="V25" t="n">
-        <v>1403.535095302178</v>
+        <v>1404.731652281575</v>
       </c>
       <c r="W25" t="n">
-        <v>1170.482828043525</v>
+        <v>1171.573360986773</v>
       </c>
       <c r="X25" t="n">
-        <v>998.8581799238158</v>
+        <v>999.8426888309148</v>
       </c>
       <c r="Y25" t="n">
-        <v>834.4305035585936</v>
+        <v>835.3089884295434</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467791</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398486</v>
@@ -6224,25 +6224,25 @@
         <v>81.14691689668916</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>792.1780824632699</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L26" t="n">
-        <v>1243.212295711679</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M26" t="n">
-        <v>1776.744200383603</v>
+        <v>2200.835586644151</v>
       </c>
       <c r="N26" t="n">
-        <v>2323.523017442385</v>
+        <v>2747.614403702933</v>
       </c>
       <c r="O26" t="n">
-        <v>2826.495488321722</v>
+        <v>3250.58687458227</v>
       </c>
       <c r="P26" t="n">
-        <v>3539.850575768668</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q26" t="n">
         <v>3998.328778277656</v>
@@ -6257,19 +6257,19 @@
         <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>81.14691689668916</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q27" t="n">
         <v>2579.688342997847</v>
@@ -6376,31 +6376,31 @@
         <v>229.7905149643393</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302703</v>
       </c>
       <c r="I28" t="n">
         <v>81.14691689668916</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960316</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973146</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q28" t="n">
         <v>2313.972430572251</v>
@@ -6418,7 +6418,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W28" t="n">
         <v>1262.182746297367</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2045.209383194913</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1721.771206394895</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1409.029847928539</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388314</v>
+        <v>1068.765935470688</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467793</v>
+        <v>703.304370821475</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398486</v>
+        <v>333.7562608068648</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.69700055602608</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.69700055602608</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557145</v>
+        <v>270.5761315150515</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455608</v>
+        <v>693.2445883619796</v>
       </c>
       <c r="L29" t="n">
-        <v>1468.364237198915</v>
+        <v>1144.278801610388</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.89614187084</v>
+        <v>2122.829104440217</v>
       </c>
       <c r="N29" t="n">
-        <v>2548.674958929621</v>
+        <v>2669.607921498999</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164795</v>
+        <v>3172.580392378336</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521972</v>
+        <v>3567.354758735514</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277655</v>
+        <v>4025.832961244502</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834457</v>
+        <v>4084.850027801304</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>4020.083699468793</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3859.63029199341</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3651.62415540764</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468333</v>
+        <v>3366.085608204463</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146293</v>
+        <v>3058.841293074744</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2730.899874954058</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2386.28488311864</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.7287386049512</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>782.2757093238242</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032361</v>
+        <v>633.341299662573</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>474.1038446571175</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246656</v>
+        <v>327.5692866840025</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572837</v>
+        <v>191.2061865166206</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951512</v>
+        <v>100.7042921544881</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.69700055602608</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873064</v>
+        <v>175.3742700466433</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676535</v>
+        <v>413.6384690269904</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803188</v>
+        <v>780.3366293396559</v>
       </c>
       <c r="M30" t="n">
-        <v>1227.062870902635</v>
+        <v>1227.612954561972</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.585914457089</v>
+        <v>1701.135998116426</v>
       </c>
       <c r="O30" t="n">
-        <v>2111.547193875144</v>
+        <v>2112.097277534481</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.596869010584</v>
       </c>
       <c r="Q30" t="n">
-        <v>2579.688342997846</v>
+        <v>2580.238426657183</v>
       </c>
       <c r="R30" t="n">
-        <v>2579.543989590362</v>
+        <v>2580.094073249699</v>
       </c>
       <c r="S30" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.656186743179</v>
       </c>
       <c r="T30" t="n">
-        <v>2257.463102761698</v>
+        <v>2258.013186421034</v>
       </c>
       <c r="U30" t="n">
-        <v>2029.395255896113</v>
+        <v>2029.94533955545</v>
       </c>
       <c r="V30" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.793231323707</v>
       </c>
       <c r="W30" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.555874595506</v>
       </c>
       <c r="X30" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.704374389973</v>
       </c>
       <c r="Y30" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.944075625019</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698011</v>
+        <v>742.227662813573</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899676</v>
+        <v>618.8158200260602</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257052</v>
+        <v>514.2235207541186</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913855</v>
+        <v>411.8347673121196</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415469</v>
+        <v>310.4691599546034</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643392</v>
+        <v>188.2906634697164</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302704</v>
+        <v>133.4983375972864</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.69700055602608</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>171.4380387745619</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973145</v>
+        <v>420.0436274950384</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982173</v>
+        <v>781.2218317151348</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1169.997283086284</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308444</v>
+        <v>1556.024065563749</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481264</v>
+        <v>1899.972070255763</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.85674916733</v>
+        <v>2177.197976461022</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572252</v>
+        <v>2299.426678385137</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277853</v>
+        <v>2255.120561283059</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052753</v>
+        <v>2108.959017250279</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1932.7167419602</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644069</v>
+        <v>1689.138215226237</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386255</v>
+        <v>1479.978067160745</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297368</v>
+        <v>1236.085237264178</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347424</v>
+        <v>1053.620026506554</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519675</v>
+        <v>878.3517875034186</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
         <v>924.7493799910139</v>
       </c>
       <c r="L32" t="n">
-        <v>1375.783593239423</v>
+        <v>1496.733761127194</v>
       </c>
       <c r="M32" t="n">
-        <v>1909.315497911347</v>
+        <v>2030.265665799119</v>
       </c>
       <c r="N32" t="n">
-        <v>2456.094314970129</v>
+        <v>2577.044482857901</v>
       </c>
       <c r="O32" t="n">
-        <v>2959.066785849466</v>
+        <v>3080.016953737238</v>
       </c>
       <c r="P32" t="n">
-        <v>3672.421873296411</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q33" t="n">
         <v>2579.688342997847</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697997</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899664</v>
+        <v>652.614500289966</v>
       </c>
       <c r="D34" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257036</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913839</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643392</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
         <v>172.7749345960314</v>
@@ -6886,7 +6886,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644068</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519664</v>
+        <v>908.299882151966</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1062.439973388314</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467794</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
@@ -6935,28 +6935,28 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J35" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K35" t="n">
-        <v>771.251070565914</v>
+        <v>603.845421545561</v>
       </c>
       <c r="L35" t="n">
-        <v>1222.285283814323</v>
+        <v>1468.364237198915</v>
       </c>
       <c r="M35" t="n">
-        <v>1755.817188486247</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N35" t="n">
-        <v>2302.596005545029</v>
+        <v>2548.674958929621</v>
       </c>
       <c r="O35" t="n">
-        <v>2805.568476424366</v>
+        <v>3080.016953737238</v>
       </c>
       <c r="P35" t="n">
-        <v>3518.923563871311</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q35" t="n">
-        <v>3977.401766380299</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R35" t="n">
         <v>4057.345844834459</v>
@@ -6971,16 +6971,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X35" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="36">
@@ -7020,22 +7020,22 @@
         <v>413.0883853676535</v>
       </c>
       <c r="L36" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O36" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P36" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q36" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R36" t="n">
         <v>2579.543989590362</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D37" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643396</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302707</v>
       </c>
       <c r="I37" t="n">
         <v>81.14691689668918</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K37" t="n">
-        <v>423.267502797314</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982167</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N37" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O37" t="n">
         <v>1910.743863481264</v>
@@ -7123,7 +7123,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U37" t="n">
         <v>1711.385138644068</v>
@@ -7138,7 +7138,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519665</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7163,7 @@
         <v>698.9037015467788</v>
       </c>
       <c r="G38" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
         <v>81.14691689668915</v>
@@ -7175,40 +7175,40 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K38" t="n">
-        <v>792.178082463269</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L38" t="n">
-        <v>1243.212295711678</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M38" t="n">
-        <v>1776.744200383602</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N38" t="n">
-        <v>2323.523017442384</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O38" t="n">
-        <v>2826.495488321721</v>
+        <v>3080.016953737237</v>
       </c>
       <c r="P38" t="n">
-        <v>3539.850575768667</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q38" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U38" t="n">
         <v>3629.895850863831</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W38" t="n">
         <v>3040.963574146293</v>
@@ -7251,25 +7251,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873071</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L39" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O39" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P39" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q39" t="n">
         <v>2579.688342997847</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643396</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H40" t="n">
         <v>131.0229611302705</v>
@@ -7330,10 +7330,10 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J40" t="n">
-        <v>172.774934596031</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K40" t="n">
-        <v>423.267502797314</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L40" t="n">
         <v>786.3326864982171</v>
@@ -7369,13 +7369,13 @@
         <v>1504.150283386255</v>
       </c>
       <c r="W40" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X40" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519665</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="41">
@@ -7400,7 +7400,7 @@
         <v>698.9037015467788</v>
       </c>
       <c r="G41" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
         <v>81.14691689668915</v>
@@ -7409,31 +7409,31 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J41" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K41" t="n">
-        <v>771.251070565914</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L41" t="n">
-        <v>1222.285283814323</v>
+        <v>1076.411957014866</v>
       </c>
       <c r="M41" t="n">
-        <v>1755.817188486247</v>
+        <v>1609.94386168679</v>
       </c>
       <c r="N41" t="n">
-        <v>2302.596005545029</v>
+        <v>2156.722678745572</v>
       </c>
       <c r="O41" t="n">
-        <v>2805.568476424366</v>
+        <v>3036.687329075027</v>
       </c>
       <c r="P41" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q41" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
         <v>3994.504809309626</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E43" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F43" t="n">
         <v>350.043718641547</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H43" t="n">
         <v>131.0229611302705</v>
@@ -7567,13 +7567,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K43" t="n">
         <v>423.2675027973144</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M43" t="n">
         <v>1176.995117350173</v>
@@ -7612,7 +7612,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>698.9037015467788</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H44" t="n">
         <v>81.14691689668915</v>
@@ -7652,22 +7652,22 @@
         <v>603.8454215455608</v>
       </c>
       <c r="L44" t="n">
-        <v>1339.011402386887</v>
+        <v>1468.364237198915</v>
       </c>
       <c r="M44" t="n">
-        <v>1872.543307058812</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N44" t="n">
-        <v>2852.295579285458</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O44" t="n">
-        <v>3355.268050164795</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P44" t="n">
-        <v>3750.042416521973</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q44" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R44" t="n">
         <v>4057.345844834458</v>
@@ -7679,16 +7679,16 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W44" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y44" t="n">
         <v>2372.257749805548</v>
@@ -7731,19 +7731,19 @@
         <v>413.0883853676535</v>
       </c>
       <c r="L45" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O45" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P45" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q45" t="n">
         <v>2579.688342997847</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502697993</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899657</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257033</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913836</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415465</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643389</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H46" t="n">
         <v>131.0229611302705</v>
@@ -7804,7 +7804,7 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K46" t="n">
         <v>423.2675027973143</v>
@@ -7840,7 +7840,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V46" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W46" t="n">
         <v>1262.182746297367</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519657</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
   </sheetData>
@@ -8453,13 +8453,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>226.6880767567238</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>242.6424607116987</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>237.2222789689842</v>
       </c>
       <c r="N8" t="n">
         <v>229.4130635965909</v>
@@ -8468,7 +8468,7 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>238.109041496981</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,19 +8535,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>145.4304255215856</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>148.7322596337616</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>138.2177578250447</v>
       </c>
       <c r="O9" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>140.8504531560417</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8614,16 +8614,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>134.8846762812383</v>
+        <v>141.4829019929816</v>
       </c>
       <c r="M10" t="n">
-        <v>138.9257839476051</v>
+        <v>145.8018296893165</v>
       </c>
       <c r="N10" t="n">
-        <v>127.6855444652332</v>
+        <v>134.5615902069446</v>
       </c>
       <c r="O10" t="n">
-        <v>138.4565384518428</v>
+        <v>145.3325841935542</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>221.3532648697744</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,13 +8939,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>276.3887311363297</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>52.86807426693386</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9176,16 +9176,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>64.07374047642487</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>3.446132268436486e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>52.86807426693383</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9413,16 +9413,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>64.07374047642487</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>9.201528428093297e-13</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,19 +9644,19 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>153.256915675974</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>151.1461613026119</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>5.009326287108706e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9872,16 +9872,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>190.2350110279889</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9890,10 +9890,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>105.7385611944697</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10112,25 +10112,25 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>89.74654864351692</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>306.6874953089257</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>122.1718867553248</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10364,13 +10364,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>78.40458911672837</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,16 +10598,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>28.65608477603973</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>21.13839585591604</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>21.13839585591421</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10835,16 +10835,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>277.2206841544154</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>21.74982042514796</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,16 +11072,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>277.2206841544146</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11300,13 +11300,13 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>287.0017854473918</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>240.9710754359432</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23030,10 +23030,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>8.426691773423613</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>356.4467746390752</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>345.9618882845383</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>373.2092167361171</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>398.1548924055668</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>231.215187496873</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>32.75081264099364</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>100.3616446562435</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>195.0918530076878</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>360.9049835465368</v>
+        <v>161.0197154980031</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>171.005863050005</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>158.5256677624832</v>
       </c>
       <c r="D13" t="n">
-        <v>139.78935588628</v>
+        <v>98.09740930573676</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>137.7128093104245</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>136.6998946867866</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>157.3046549228836</v>
       </c>
       <c r="H13" t="n">
-        <v>65.53182689111162</v>
+        <v>136.0338615781761</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.63126707369344</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>80.10603553811502</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>243.3115261918957</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>209.7585362201625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,22 +23495,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>354.6456985552605</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>73.822306404328</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>396.2488525259644</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>83.96401889768671</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>195.0918530076879</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>242.1690548269698</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>318.9261413382027</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>171.0058630500051</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>158.4207039666956</v>
+        <v>156.6196278828808</v>
       </c>
       <c r="D16" t="n">
-        <v>57.95285417310818</v>
+        <v>64.09213302172657</v>
       </c>
       <c r="E16" t="n">
-        <v>137.6078455146369</v>
+        <v>135.8067694308221</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>134.7938548071842</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>155.3986150432812</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>134.1278216985737</v>
       </c>
       <c r="I16" t="n">
-        <v>87.52630327790587</v>
+        <v>85.72522719409108</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>80.10603553811512</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>216.8835382571049</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>162.7997665825108</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23783,10 +23783,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>148.1167163890953</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.631626380161237</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>162.7997665825104</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>149.7483427692569</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24847,13 +24847,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.458611022521106e-12</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>45.44151556162488</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1181278.241140015</v>
+        <v>1184147.308036898</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>950275.8638001549</v>
+        <v>950025.5942217761</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1009606.290941853</v>
+        <v>1012326.853730469</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1113264.869661123</v>
+        <v>1111533.139509056</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1113264.869661123</v>
+        <v>1111533.139509056</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1133613.523676986</v>
+        <v>1133655.295005329</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1137125.959883637</v>
+        <v>1136412.181250862</v>
       </c>
     </row>
     <row r="12">
@@ -26314,46 +26314,46 @@
         <v>327710.5354868153</v>
       </c>
       <c r="C2" t="n">
-        <v>327710.5354868154</v>
+        <v>327710.5354868153</v>
       </c>
       <c r="D2" t="n">
-        <v>327710.5354868153</v>
+        <v>328148.4020796475</v>
       </c>
       <c r="E2" t="n">
-        <v>279033.0809748096</v>
+        <v>278958.9270256602</v>
       </c>
       <c r="F2" t="n">
-        <v>292935.0677580825</v>
+        <v>293838.7083322192</v>
       </c>
       <c r="G2" t="n">
-        <v>323648.7207119399</v>
+        <v>323233.1633777259</v>
       </c>
       <c r="H2" t="n">
-        <v>323648.7207119397</v>
+        <v>323233.1633777259</v>
       </c>
       <c r="I2" t="n">
         <v>328416.7079457131</v>
       </c>
       <c r="J2" t="n">
-        <v>328416.7079457134</v>
+        <v>328416.7079457131</v>
       </c>
       <c r="K2" t="n">
-        <v>328416.7079457132</v>
+        <v>327980.4693963218</v>
       </c>
       <c r="L2" t="n">
         <v>328416.7079457132</v>
       </c>
       <c r="M2" t="n">
-        <v>328416.7079457132</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="N2" t="n">
-        <v>328416.7079457131</v>
+        <v>328416.7079457135</v>
       </c>
       <c r="O2" t="n">
         <v>328416.7079457134</v>
       </c>
       <c r="P2" t="n">
-        <v>328416.7079457132</v>
+        <v>328416.7079457135</v>
       </c>
     </row>
     <row r="3">
@@ -26369,37 +26369,37 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2135.906088747824</v>
       </c>
       <c r="E3" t="n">
-        <v>1130828.948043409</v>
+        <v>1128691.94102131</v>
       </c>
       <c r="F3" t="n">
-        <v>32236.40382474399</v>
+        <v>32906.12228073741</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487411</v>
+        <v>36055.27739119215</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>10261.08767716541</v>
+        <v>11155.40010549055</v>
       </c>
       <c r="J3" t="n">
-        <v>8330.810212363991</v>
+        <v>8231.736809099011</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1769.674140452818</v>
       </c>
       <c r="L3" t="n">
         <v>37580.10929487406</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.5682920731</v>
+        <v>205475.0301890555</v>
       </c>
       <c r="N3" t="n">
-        <v>27556.19273498081</v>
+        <v>26825.22810558572</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,31 +26421,31 @@
         <v>420147.7688895313</v>
       </c>
       <c r="D4" t="n">
-        <v>420147.7688895313</v>
+        <v>419946.1207682426</v>
       </c>
       <c r="E4" t="n">
-        <v>18079.65406212013</v>
+        <v>17973.58334713775</v>
       </c>
       <c r="F4" t="n">
-        <v>30544.0667606214</v>
+        <v>32033.50138554485</v>
       </c>
       <c r="G4" t="n">
-        <v>74419.63880303444</v>
+        <v>74022.76891379224</v>
       </c>
       <c r="H4" t="n">
-        <v>74419.63880303447</v>
+        <v>74022.76891379223</v>
       </c>
       <c r="I4" t="n">
-        <v>78694.57889249279</v>
+        <v>78670.29446130645</v>
       </c>
       <c r="J4" t="n">
-        <v>76652.56781120106</v>
+        <v>76652.56781120108</v>
       </c>
       <c r="K4" t="n">
-        <v>76652.56781120115</v>
+        <v>75574.80188343371</v>
       </c>
       <c r="L4" t="n">
-        <v>76652.56781120106</v>
+        <v>76652.56781120109</v>
       </c>
       <c r="M4" t="n">
         <v>76652.56781120109</v>
@@ -26454,10 +26454,10 @@
         <v>76652.56781120106</v>
       </c>
       <c r="O4" t="n">
-        <v>76652.56781120106</v>
+        <v>76652.56781120104</v>
       </c>
       <c r="P4" t="n">
-        <v>76652.56781120106</v>
+        <v>76652.56781120104</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26473,43 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33627.6</v>
+        <v>34045.66358109605</v>
       </c>
       <c r="E5" t="n">
-        <v>75048.34340255772</v>
+        <v>75039.51920120965</v>
       </c>
       <c r="F5" t="n">
-        <v>81888.81635281161</v>
+        <v>81858.77838336895</v>
       </c>
       <c r="G5" t="n">
-        <v>85837.96911320009</v>
+        <v>85647.69227711912</v>
       </c>
       <c r="H5" t="n">
-        <v>85837.96911320009</v>
+        <v>85647.69227711912</v>
       </c>
       <c r="I5" t="n">
-        <v>88184.05735283386</v>
+        <v>88198.25551362103</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.9416748061</v>
+        <v>89635.7663892639</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="N5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="O5" t="n">
         <v>89377.9416748061</v>
       </c>
       <c r="P5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-126064.8334027159</v>
+        <v>-126069.2469805841</v>
       </c>
       <c r="C6" t="n">
-        <v>-126064.8334027158</v>
+        <v>-126069.2469805841</v>
       </c>
       <c r="D6" t="n">
-        <v>-126064.8334027159</v>
+        <v>-127980.9652701019</v>
       </c>
       <c r="E6" t="n">
-        <v>-944923.8645332775</v>
+        <v>-943055.2276747481</v>
       </c>
       <c r="F6" t="n">
-        <v>148265.7808199055</v>
+        <v>146824.1937849837</v>
       </c>
       <c r="G6" t="n">
-        <v>125811.0035008313</v>
+        <v>127475.0276420725</v>
       </c>
       <c r="H6" t="n">
-        <v>163391.1127957052</v>
+        <v>163530.3050332646</v>
       </c>
       <c r="I6" t="n">
-        <v>151276.984023221</v>
+        <v>150392.7578652951</v>
       </c>
       <c r="J6" t="n">
-        <v>154055.3882473422</v>
+        <v>154154.4616506069</v>
       </c>
       <c r="K6" t="n">
-        <v>162386.1984597059</v>
+        <v>160997.5004922377</v>
       </c>
       <c r="L6" t="n">
-        <v>124806.089164832</v>
+        <v>124806.0891648319</v>
       </c>
       <c r="M6" t="n">
-        <v>-44802.36983236705</v>
+        <v>-43088.8317293493</v>
       </c>
       <c r="N6" t="n">
-        <v>134830.0057247251</v>
+        <v>135560.9703541206</v>
       </c>
       <c r="O6" t="n">
-        <v>162386.1984597062</v>
+        <v>162386.1984597063</v>
       </c>
       <c r="P6" t="n">
-        <v>162386.1984597061</v>
+        <v>162386.1984597063</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>8.826117131932307</v>
+        <v>8.721153336144653</v>
       </c>
       <c r="F2" t="n">
-        <v>8.826117131932236</v>
+        <v>10.62719321574705</v>
       </c>
       <c r="G2" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="H2" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="I2" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="J2" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="K2" t="n">
+        <v>45.06909673899018</v>
+      </c>
+      <c r="L2" t="n">
         <v>46.97513661859258</v>
       </c>
-      <c r="K2" t="n">
-        <v>46.97513661859265</v>
-      </c>
-      <c r="L2" t="n">
-        <v>46.97513661859259</v>
-      </c>
       <c r="M2" t="n">
+        <v>46.97513661859258</v>
+      </c>
+      <c r="N2" t="n">
+        <v>46.97513661859257</v>
+      </c>
+      <c r="O2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="N2" t="n">
-        <v>46.9751366185926</v>
-      </c>
-      <c r="O2" t="n">
-        <v>46.97513661859259</v>
-      </c>
       <c r="P2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26793,31 +26793,31 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>943.9092341893636</v>
+        <v>940.924815854941</v>
       </c>
       <c r="G4" t="n">
-        <v>943.9092341893636</v>
+        <v>940.924815854941</v>
       </c>
       <c r="H4" t="n">
-        <v>943.9092341893636</v>
+        <v>940.924815854941</v>
       </c>
       <c r="I4" t="n">
-        <v>982.4962118149193</v>
+        <v>982.8748690868804</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208614</v>
+        <v>1021.212506950326</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
         <v>1014.336461208615</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>8.826117131932307</v>
+        <v>8.721153336144653</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.906039879602396</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859264</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27015,13 +27015,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>824.5254096605813</v>
       </c>
       <c r="F4" t="n">
-        <v>112.5077787870707</v>
+        <v>109.5233604526483</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,22 +27030,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>38.58697762555573</v>
+        <v>41.95005323193936</v>
       </c>
       <c r="J4" t="n">
-        <v>31.84024939369522</v>
+        <v>31.46159212173416</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>6.87604574171155</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022932</v>
+        <v>824.5254096605813</v>
       </c>
       <c r="N4" t="n">
-        <v>112.5077787870704</v>
+        <v>109.523360452648</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.826117131932307</v>
+        <v>8.721153336144653</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.906039879602396</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859264</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27261,13 +27261,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>824.5254096605813</v>
       </c>
       <c r="N4" t="n">
-        <v>112.5077787870707</v>
+        <v>109.5233604526483</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>142.9930721994382</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27910,7 +27910,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>321.6958373808355</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27929,13 +27929,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>159.6571379081559</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>140.5690198229273</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27989,10 +27989,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>225.9245414077138</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>245.6385620716202</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28050,16 +28050,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>79.28599750998295</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>170.417345635458</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>217.1405522952608</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>283.1880179823981</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.826117131932307</v>
+        <v>8.721153336144653</v>
       </c>
       <c r="C11" t="n">
-        <v>8.826117131932307</v>
+        <v>8.721153336144653</v>
       </c>
       <c r="D11" t="n">
-        <v>8.826117131932307</v>
+        <v>8.721153336144653</v>
       </c>
       <c r="E11" t="n">
-        <v>8.826117131932307</v>
+        <v>8.721153336144653</v>
       </c>
       <c r="F11" t="n">
-        <v>8.826117131932307</v>
+        <v>8.721153336144653</v>
       </c>
       <c r="G11" t="n">
-        <v>8.826117131932307</v>
+        <v>8.721153336144653</v>
       </c>
       <c r="H11" t="n">
-        <v>8.826117131932307</v>
+        <v>8.721153336144653</v>
       </c>
       <c r="I11" t="n">
-        <v>8.826117131932307</v>
+        <v>8.721153336144653</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>8.826117131932307</v>
+        <v>8.721153336144653</v>
       </c>
       <c r="T11" t="n">
-        <v>8.826117131932307</v>
+        <v>8.721153336144653</v>
       </c>
       <c r="U11" t="n">
-        <v>8.826117131932307</v>
+        <v>8.721153336144653</v>
       </c>
       <c r="V11" t="n">
-        <v>8.826117131932307</v>
+        <v>8.721153336144653</v>
       </c>
       <c r="W11" t="n">
-        <v>8.826117131932307</v>
+        <v>8.721153336144653</v>
       </c>
       <c r="X11" t="n">
-        <v>8.826117131932307</v>
+        <v>8.721153336144653</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.826117131932307</v>
+        <v>8.721153336144653</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.826117131932307</v>
+        <v>8.721153336144653</v>
       </c>
       <c r="C13" t="n">
-        <v>8.826117131932307</v>
+        <v>8.721153336144653</v>
       </c>
       <c r="D13" t="n">
-        <v>8.826117131932307</v>
+        <v>8.721153336144653</v>
       </c>
       <c r="E13" t="n">
-        <v>8.826117131932307</v>
+        <v>8.721153336144653</v>
       </c>
       <c r="F13" t="n">
-        <v>8.826117131932307</v>
+        <v>8.721153336144653</v>
       </c>
       <c r="G13" t="n">
-        <v>8.826117131932307</v>
+        <v>8.721153336144653</v>
       </c>
       <c r="H13" t="n">
-        <v>8.826117131932307</v>
+        <v>8.721153336144653</v>
       </c>
       <c r="I13" t="n">
-        <v>8.826117131932307</v>
+        <v>8.721153336144653</v>
       </c>
       <c r="J13" t="n">
-        <v>8.826117131932307</v>
+        <v>8.721153336144653</v>
       </c>
       <c r="K13" t="n">
-        <v>8.826117131932307</v>
+        <v>8.721153336144653</v>
       </c>
       <c r="L13" t="n">
-        <v>8.826117131932307</v>
+        <v>8.721153336144653</v>
       </c>
       <c r="M13" t="n">
-        <v>8.826117131932307</v>
+        <v>8.721153336144653</v>
       </c>
       <c r="N13" t="n">
-        <v>8.826117131932307</v>
+        <v>8.721153336144653</v>
       </c>
       <c r="O13" t="n">
-        <v>8.826117131932307</v>
+        <v>8.721153336144653</v>
       </c>
       <c r="P13" t="n">
-        <v>8.826117131932307</v>
+        <v>8.721153336144653</v>
       </c>
       <c r="Q13" t="n">
-        <v>8.826117131932307</v>
+        <v>8.721153336144653</v>
       </c>
       <c r="R13" t="n">
-        <v>8.826117131932307</v>
+        <v>8.721153336144653</v>
       </c>
       <c r="S13" t="n">
-        <v>8.826117131932307</v>
+        <v>8.721153336144653</v>
       </c>
       <c r="T13" t="n">
-        <v>8.826117131932307</v>
+        <v>8.721153336144653</v>
       </c>
       <c r="U13" t="n">
-        <v>8.826117131932307</v>
+        <v>8.721153336144653</v>
       </c>
       <c r="V13" t="n">
-        <v>8.826117131932307</v>
+        <v>8.721153336144653</v>
       </c>
       <c r="W13" t="n">
-        <v>8.826117131932307</v>
+        <v>8.721153336144653</v>
       </c>
       <c r="X13" t="n">
-        <v>8.826117131932307</v>
+        <v>8.721153336144653</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.826117131932307</v>
+        <v>8.721153336144653</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.826117131932236</v>
+        <v>10.62719321574705</v>
       </c>
       <c r="C14" t="n">
-        <v>8.826117131932236</v>
+        <v>10.62719321574705</v>
       </c>
       <c r="D14" t="n">
-        <v>8.826117131932236</v>
+        <v>10.62719321574705</v>
       </c>
       <c r="E14" t="n">
-        <v>8.826117131932236</v>
+        <v>10.62719321574705</v>
       </c>
       <c r="F14" t="n">
-        <v>8.826117131932236</v>
+        <v>10.62719321574705</v>
       </c>
       <c r="G14" t="n">
-        <v>8.826117131932236</v>
+        <v>10.62719321574705</v>
       </c>
       <c r="H14" t="n">
-        <v>8.826117131932236</v>
+        <v>10.62719321574705</v>
       </c>
       <c r="I14" t="n">
-        <v>8.826117131932236</v>
+        <v>10.62719321574705</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>8.826117131932236</v>
+        <v>10.62719321574705</v>
       </c>
       <c r="T14" t="n">
-        <v>8.826117131932236</v>
+        <v>10.62719321574705</v>
       </c>
       <c r="U14" t="n">
-        <v>8.826117131932236</v>
+        <v>10.62719321574705</v>
       </c>
       <c r="V14" t="n">
-        <v>8.826117131932236</v>
+        <v>10.62719321574705</v>
       </c>
       <c r="W14" t="n">
-        <v>8.826117131932236</v>
+        <v>10.62719321574705</v>
       </c>
       <c r="X14" t="n">
-        <v>8.826117131932236</v>
+        <v>10.62719321574705</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.826117131932236</v>
+        <v>10.62719321574705</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.826117131932236</v>
+        <v>10.62719321574705</v>
       </c>
       <c r="C16" t="n">
-        <v>8.826117131932236</v>
+        <v>10.62719321574705</v>
       </c>
       <c r="D16" t="n">
-        <v>8.826117131932236</v>
+        <v>10.62719321574705</v>
       </c>
       <c r="E16" t="n">
-        <v>8.826117131932236</v>
+        <v>10.62719321574705</v>
       </c>
       <c r="F16" t="n">
-        <v>8.826117131932236</v>
+        <v>10.62719321574705</v>
       </c>
       <c r="G16" t="n">
-        <v>8.826117131932236</v>
+        <v>10.62719321574705</v>
       </c>
       <c r="H16" t="n">
-        <v>8.826117131932236</v>
+        <v>10.62719321574705</v>
       </c>
       <c r="I16" t="n">
-        <v>8.826117131932236</v>
+        <v>10.62719321574705</v>
       </c>
       <c r="J16" t="n">
-        <v>8.826117131932236</v>
+        <v>10.62719321574705</v>
       </c>
       <c r="K16" t="n">
-        <v>8.826117131932236</v>
+        <v>10.62719321574705</v>
       </c>
       <c r="L16" t="n">
-        <v>8.826117131932236</v>
+        <v>10.62719321574705</v>
       </c>
       <c r="M16" t="n">
-        <v>8.826117131932236</v>
+        <v>10.62719321574705</v>
       </c>
       <c r="N16" t="n">
-        <v>8.826117131932236</v>
+        <v>10.62719321574705</v>
       </c>
       <c r="O16" t="n">
-        <v>8.826117131932236</v>
+        <v>10.62719321574705</v>
       </c>
       <c r="P16" t="n">
-        <v>8.826117131932236</v>
+        <v>10.62719321574705</v>
       </c>
       <c r="Q16" t="n">
-        <v>8.826117131932236</v>
+        <v>10.62719321574705</v>
       </c>
       <c r="R16" t="n">
-        <v>8.826117131932236</v>
+        <v>10.62719321574705</v>
       </c>
       <c r="S16" t="n">
-        <v>8.826117131932236</v>
+        <v>10.62719321574705</v>
       </c>
       <c r="T16" t="n">
-        <v>8.826117131932236</v>
+        <v>10.62719321574705</v>
       </c>
       <c r="U16" t="n">
-        <v>8.826117131932236</v>
+        <v>10.62719321574705</v>
       </c>
       <c r="V16" t="n">
-        <v>8.826117131932236</v>
+        <v>10.62719321574705</v>
       </c>
       <c r="W16" t="n">
-        <v>8.826117131932236</v>
+        <v>10.62719321574705</v>
       </c>
       <c r="X16" t="n">
-        <v>8.826117131932236</v>
+        <v>10.62719321574705</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.826117131932236</v>
+        <v>10.62719321574705</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="C17" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="D17" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="E17" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="F17" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="G17" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="H17" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="T17" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="U17" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="V17" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="W17" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="X17" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="Y17" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="C19" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="D19" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="E19" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="F19" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="G19" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="H19" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="I19" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="K19" t="n">
-        <v>8.510908973151828</v>
+        <v>10.64428393244978</v>
       </c>
       <c r="L19" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="O19" t="n">
-        <v>55.80125375052488</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>55.80125375052488</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="R19" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="S19" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="T19" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="U19" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="V19" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="W19" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="X19" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="Y19" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="C20" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="D20" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="E20" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="F20" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="G20" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="H20" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="T20" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="U20" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="V20" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="W20" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="X20" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="Y20" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="C22" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="D22" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="E22" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="F22" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="G22" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="H22" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="I22" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="J22" t="n">
-        <v>55.80125375052488</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>55.80125375052488</v>
+        <v>10.64428393244935</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="O22" t="n">
-        <v>8.510908973151913</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="Q22" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="R22" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="S22" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="T22" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="U22" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="V22" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="W22" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="X22" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="Y22" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="C23" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="D23" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="E23" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="F23" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="G23" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="H23" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="T23" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="U23" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="V23" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="W23" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="X23" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="Y23" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="C25" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="D25" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="E25" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="F25" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="G25" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="H25" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="I25" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="K25" t="n">
-        <v>8.510908973151857</v>
+        <v>10.64428393244907</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="M25" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>55.80125375052488</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="Q25" t="n">
-        <v>55.80125375052488</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="S25" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="T25" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="U25" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="V25" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="W25" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="X25" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
       <c r="Y25" t="n">
-        <v>55.80125375052488</v>
+        <v>55.69628995473723</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859265</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859265</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859265</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859265</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859265</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859265</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859265</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859265</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859265</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859265</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859265</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859265</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859265</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859265</v>
+        <v>45.06909673899018</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859265</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859265</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859265</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859265</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859265</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859265</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859265</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859265</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859265</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859265</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859265</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859265</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859265</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859265</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859265</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859265</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859265</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859265</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859265</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859265</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859265</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859265</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859265</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859265</v>
+        <v>45.06909673899018</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C38" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D38" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E38" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F38" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G38" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H38" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T38" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U38" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V38" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W38" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X38" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -32081,7 +32081,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M15" t="n">
         <v>593.9283018233474</v>
@@ -32318,7 +32318,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
         <v>593.9283018233474</v>
@@ -32549,7 +32549,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.461131202644</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32807,7 +32807,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.215670698749</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33044,7 +33044,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33266,7 +33266,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233474</v>
@@ -33497,7 +33497,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026445</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33518,7 +33518,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33740,7 +33740,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138802</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233474</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026445</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34217,10 +34217,10 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
         <v>557.7086478970249</v>
@@ -34451,7 +34451,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138802</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233474</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35173,13 +35173,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35188,7 +35188,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,19 +35255,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35334,16 +35334,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>54.40453374499853</v>
+        <v>54.29956994921088</v>
       </c>
       <c r="K13" t="n">
-        <v>214.8737766762519</v>
+        <v>214.7688128804642</v>
       </c>
       <c r="L13" t="n">
-        <v>328.5834893021304</v>
+        <v>328.4785255063427</v>
       </c>
       <c r="M13" t="n">
-        <v>356.4594965254162</v>
+        <v>356.3545327296285</v>
       </c>
       <c r="N13" t="n">
-        <v>353.6830632994724</v>
+        <v>353.5780995036847</v>
       </c>
       <c r="O13" t="n">
-        <v>311.1792473545721</v>
+        <v>311.0742835587844</v>
       </c>
       <c r="P13" t="n">
-        <v>243.7831882770427</v>
+        <v>243.6782244812551</v>
       </c>
       <c r="Q13" t="n">
-        <v>87.22035566982596</v>
+        <v>87.11539187403831</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>676.9433792621063</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302265</v>
@@ -35659,13 +35659,13 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>784.4417320245487</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222472</v>
@@ -35729,7 +35729,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
         <v>451.7942679013291</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.40453374499843</v>
+        <v>56.20560982881324</v>
       </c>
       <c r="K16" t="n">
-        <v>214.8737766762517</v>
+        <v>216.6748527600666</v>
       </c>
       <c r="L16" t="n">
-        <v>328.5834893021303</v>
+        <v>330.3845653859452</v>
       </c>
       <c r="M16" t="n">
-        <v>356.459496525416</v>
+        <v>358.2605726092308</v>
       </c>
       <c r="N16" t="n">
-        <v>353.6830632994723</v>
+        <v>355.4841393832871</v>
       </c>
       <c r="O16" t="n">
-        <v>311.1792473545719</v>
+        <v>312.9803234383868</v>
       </c>
       <c r="P16" t="n">
-        <v>243.7831882770426</v>
+        <v>245.5842643608574</v>
       </c>
       <c r="Q16" t="n">
-        <v>87.22035566982586</v>
+        <v>89.02143175364068</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>243.6550752356464</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554004</v>
@@ -35896,16 +35896,16 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>123.6869390186496</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,7 +35966,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
         <v>451.7942679013291</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>101.2747065678034</v>
       </c>
       <c r="K19" t="n">
-        <v>214.5585685174713</v>
+        <v>216.6919434767693</v>
       </c>
       <c r="L19" t="n">
-        <v>375.5586259207229</v>
+        <v>375.4536621249353</v>
       </c>
       <c r="M19" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>400.5532361222773</v>
       </c>
       <c r="O19" t="n">
-        <v>358.1543839731646</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
-        <v>290.7583248956353</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>134.1954922884185</v>
+        <v>134.0905284926309</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>390.0593608223342</v>
       </c>
       <c r="L20" t="n">
         <v>455.5901143923319</v>
@@ -36133,16 +36133,16 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>123.6869390186496</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597733</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>101.3796703635911</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>261.8489132948444</v>
+        <v>261.7439494990567</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>403.4346331440087</v>
+        <v>358.2776633259331</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>400.5532361222773</v>
       </c>
       <c r="O22" t="n">
-        <v>310.8640391957916</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>290.6533610998476</v>
       </c>
       <c r="Q22" t="n">
-        <v>134.1954922884185</v>
+        <v>134.0905284926309</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554004</v>
@@ -36364,19 +36364,19 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>692.1780315062006</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
-        <v>549.9081475219836</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36455,7 +36455,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127274</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>101.2747065678034</v>
       </c>
       <c r="K25" t="n">
-        <v>214.5585685174714</v>
+        <v>216.6919434767686</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>375.4536621249353</v>
       </c>
       <c r="M25" t="n">
-        <v>403.4346331440087</v>
+        <v>403.329669348221</v>
       </c>
       <c r="N25" t="n">
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>358.1543839731646</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
-        <v>290.7583248956353</v>
+        <v>290.6533610998476</v>
       </c>
       <c r="Q25" t="n">
-        <v>134.1954922884185</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>527.4262975833893</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129113</v>
@@ -36610,10 +36610,10 @@
         <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>504.5005474138413</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222472</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597774</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36692,7 +36692,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36759,7 +36759,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
         <v>391.8320827861326</v>
@@ -36768,7 +36768,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36832,25 +36832,25 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>426.9378351989173</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>814.7404961971447</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222472</v>
@@ -36914,7 +36914,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013291</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165884</v>
+        <v>90.64751335205636</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629122</v>
+        <v>251.1167562833097</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>364.8264689091882</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120764</v>
+        <v>392.702476132474</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>389.9260429065302</v>
       </c>
       <c r="O31" t="n">
-        <v>349.3282668412323</v>
+        <v>347.4222269616299</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>280.0261678841006</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564863</v>
+        <v>123.4633352768838</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>577.7620011476567</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302265</v>
@@ -37084,13 +37084,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>329.1988939204478</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597776</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37166,7 +37166,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,7 +37233,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
@@ -37242,7 +37242,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302265</v>
@@ -37318,16 +37318,16 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>536.7090856642587</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
         <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
-        <v>80.75159439814077</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013291</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
         <v>394.6085160120763</v>
@@ -37543,7 +37543,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>358.3296824113146</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923319</v>
@@ -37555,16 +37555,16 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>785.2736850426344</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
         <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597776</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37707,16 +37707,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>477.3399348174799</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302265</v>
@@ -37792,16 +37792,16 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P41" t="n">
-        <v>675.9826703737863</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,10 +37865,10 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525805</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N43" t="n">
         <v>391.8320827861326</v>
@@ -37953,7 +37953,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38020,13 +38020,13 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>742.5918998397237</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248955</v>
+        <v>793.2729108488545</v>
       </c>
       <c r="O44" t="n">
         <v>508.053000888219</v>
@@ -38038,7 +38038,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013291</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
